--- a/Code/Results/Cases/Case_3_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.66598208603137</v>
+        <v>8.855412382637946</v>
       </c>
       <c r="C2">
-        <v>7.079368457109032</v>
+        <v>5.72609263032619</v>
       </c>
       <c r="D2">
-        <v>8.505386478144663</v>
+        <v>10.99082523556015</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.37042652898793</v>
+        <v>31.73380328294286</v>
       </c>
       <c r="G2">
-        <v>21.91789042897335</v>
+        <v>31.07709316244517</v>
       </c>
       <c r="H2">
-        <v>9.06701853538252</v>
+        <v>14.9983615352189</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.076819001440985</v>
+        <v>11.51203972391945</v>
       </c>
       <c r="K2">
-        <v>11.34111506369478</v>
+        <v>8.081647105149639</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.1333336188361</v>
+        <v>15.46151087255969</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.64331125580116</v>
+        <v>23.11399910700465</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.88465704177233</v>
+        <v>8.554288718961949</v>
       </c>
       <c r="C3">
-        <v>6.864157315634333</v>
+        <v>5.633480733610848</v>
       </c>
       <c r="D3">
-        <v>8.150057927572874</v>
+        <v>10.94305937733673</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.23354997083561</v>
+        <v>31.81675099005536</v>
       </c>
       <c r="G3">
-        <v>21.88504653146279</v>
+        <v>31.19942635312756</v>
       </c>
       <c r="H3">
-        <v>9.162076012465405</v>
+        <v>15.04991577096695</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.036050907532664</v>
+        <v>11.53285902276234</v>
       </c>
       <c r="K3">
-        <v>10.7710898090841</v>
+        <v>7.870683070697826</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.56458213908251</v>
+        <v>15.36976518107338</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.75632581246159</v>
+        <v>23.20410715127628</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.37778854292854</v>
+        <v>8.364838524017589</v>
       </c>
       <c r="C4">
-        <v>6.728795597475895</v>
+        <v>5.575664925535744</v>
       </c>
       <c r="D4">
-        <v>7.927511997943612</v>
+        <v>10.9155521400319</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.16749616768358</v>
+        <v>31.87485089427859</v>
       </c>
       <c r="G4">
-        <v>21.89077521814482</v>
+        <v>31.28350742403019</v>
       </c>
       <c r="H4">
-        <v>9.225431055465943</v>
+        <v>15.08376519329008</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.014720608286288</v>
+        <v>11.54733060962598</v>
       </c>
       <c r="K4">
-        <v>10.40471643915454</v>
+        <v>7.738893443013051</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.20476911960013</v>
+        <v>15.31543884710581</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.83739128607008</v>
+        <v>23.26394056452186</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.16443089014335</v>
+        <v>8.286606199505792</v>
       </c>
       <c r="C5">
-        <v>6.672882451250491</v>
+        <v>5.551885881662214</v>
       </c>
       <c r="D5">
-        <v>7.835857808766384</v>
+        <v>10.90480926134118</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.14499045832151</v>
+        <v>31.90032655612521</v>
       </c>
       <c r="G5">
-        <v>21.89935817470677</v>
+        <v>31.32001771082777</v>
       </c>
       <c r="H5">
-        <v>9.252467402087882</v>
+        <v>15.09811140334428</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.006943790873383</v>
+        <v>11.55365253005139</v>
       </c>
       <c r="K5">
-        <v>10.25138922858889</v>
+        <v>7.68469487047622</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.05566806744802</v>
+        <v>15.29382212195273</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.87324425401378</v>
+        <v>23.28945534708104</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.1285927967705</v>
+        <v>8.273557194700015</v>
       </c>
       <c r="C6">
-        <v>6.663554479856286</v>
+        <v>5.547924800555048</v>
       </c>
       <c r="D6">
-        <v>7.820584667234078</v>
+        <v>10.90305383265924</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.14151640984395</v>
+        <v>31.90466534921616</v>
       </c>
       <c r="G6">
-        <v>21.90115289974931</v>
+        <v>31.32621564846514</v>
       </c>
       <c r="H6">
-        <v>9.257029363871284</v>
+        <v>15.10052694887663</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.00570727529989</v>
+        <v>11.55472792765199</v>
       </c>
       <c r="K6">
-        <v>10.22568916747185</v>
+        <v>7.675667702777876</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.03076664617761</v>
+        <v>15.2902646814999</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.87936447349865</v>
+        <v>23.29376040702282</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.37493864630265</v>
+        <v>8.363787463535518</v>
       </c>
       <c r="C7">
-        <v>6.728044498420364</v>
+        <v>5.575345090511504</v>
       </c>
       <c r="D7">
-        <v>7.926279634826661</v>
+        <v>10.91540535785786</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.16717493937761</v>
+        <v>31.87518718666181</v>
       </c>
       <c r="G7">
-        <v>21.89086602512914</v>
+        <v>31.28399072974638</v>
       </c>
       <c r="H7">
-        <v>9.22579078859253</v>
+        <v>15.08395643458099</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.014612041909099</v>
+        <v>11.54741414989458</v>
       </c>
       <c r="K7">
-        <v>10.40266478638685</v>
+        <v>7.738164397908238</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.20276803609033</v>
+        <v>15.31514518175161</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.83786355306112</v>
+        <v>23.26428008306238</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.40221946268966</v>
+        <v>8.752597874119605</v>
       </c>
       <c r="C8">
-        <v>7.005865307766133</v>
+        <v>5.694369802169692</v>
       </c>
       <c r="D8">
-        <v>8.383852639220505</v>
+        <v>10.9739828976016</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.31943369312562</v>
+        <v>31.76091363540717</v>
       </c>
       <c r="G8">
-        <v>21.90103620764419</v>
+        <v>31.11740731895641</v>
       </c>
       <c r="H8">
-        <v>9.098736434322491</v>
+        <v>15.01568210189969</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.061985082957271</v>
+        <v>11.51886782444856</v>
       </c>
       <c r="K8">
-        <v>11.14801770825911</v>
+        <v>8.009418338245844</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.93953299865028</v>
+        <v>15.42947122870657</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.67978371439221</v>
+        <v>23.14413235501863</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.20123150460303</v>
+        <v>9.474288189260786</v>
       </c>
       <c r="C9">
-        <v>7.522841219732205</v>
+        <v>5.919349680474982</v>
       </c>
       <c r="D9">
-        <v>9.241347814361417</v>
+        <v>11.10290201355982</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.76522992851098</v>
+        <v>31.59385192834093</v>
       </c>
       <c r="G9">
-        <v>22.13760091907269</v>
+        <v>30.86226137770822</v>
       </c>
       <c r="H9">
-        <v>8.890911424402811</v>
+        <v>14.89919538640014</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.184880520531543</v>
+        <v>11.47628236258265</v>
       </c>
       <c r="K9">
-        <v>12.47665053583675</v>
+        <v>8.520401232973231</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.29329368905164</v>
+        <v>15.6687890157839</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.46789897557547</v>
+        <v>22.94432906163782</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.39199816094905</v>
+        <v>9.974234479495033</v>
       </c>
       <c r="C10">
-        <v>7.88303576273177</v>
+        <v>6.078384197881974</v>
       </c>
       <c r="D10">
-        <v>9.841332908924024</v>
+        <v>11.20561238376841</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.18789014231696</v>
+        <v>31.50605185463576</v>
       </c>
       <c r="G10">
-        <v>22.45763271275371</v>
+        <v>30.71888825792101</v>
       </c>
       <c r="H10">
-        <v>8.766016092469085</v>
+        <v>14.82419647765323</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.294242189859146</v>
+        <v>11.45315420646487</v>
       </c>
       <c r="K10">
-        <v>13.36870003521143</v>
+        <v>8.879313778416662</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.32236274176161</v>
+        <v>15.85273653843988</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.37986723086658</v>
+        <v>22.8194259836811</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.90549989437733</v>
+        <v>10.19414615454704</v>
       </c>
       <c r="C11">
-        <v>8.042176885537648</v>
+        <v>6.149152809022108</v>
       </c>
       <c r="D11">
-        <v>10.10683708899801</v>
+        <v>11.2539424650381</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.40176304478648</v>
+        <v>31.47372630404013</v>
       </c>
       <c r="G11">
-        <v>22.63764818968626</v>
+        <v>30.66333097881952</v>
       </c>
       <c r="H11">
-        <v>8.715861419506357</v>
+        <v>14.7923710690242</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.348280461901535</v>
+        <v>11.44440223309384</v>
       </c>
       <c r="K11">
-        <v>13.75587715034322</v>
+        <v>9.038313991296205</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.8127575332885</v>
+        <v>15.93793765286404</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.35627641919644</v>
+        <v>22.76737184212975</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.09592143328582</v>
+        <v>10.27627285035704</v>
       </c>
       <c r="C12">
-        <v>8.101729895237265</v>
+        <v>6.17570690584512</v>
       </c>
       <c r="D12">
-        <v>10.2062477255289</v>
+        <v>11.27246313456239</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.48591966626044</v>
+        <v>31.46258230636978</v>
       </c>
       <c r="G12">
-        <v>22.71095819912799</v>
+        <v>30.64368964535692</v>
       </c>
       <c r="H12">
-        <v>8.697884108029793</v>
+        <v>14.78064890535934</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.369370507761943</v>
+        <v>11.44134221907172</v>
       </c>
       <c r="K12">
-        <v>13.89979470461563</v>
+        <v>9.097857692351647</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.99469028769826</v>
+        <v>15.97039879691992</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.34986042392323</v>
+        <v>22.74834668920817</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.05508959770444</v>
+        <v>10.25863750214436</v>
       </c>
       <c r="C13">
-        <v>8.08893614742267</v>
+        <v>6.169999148981372</v>
       </c>
       <c r="D13">
-        <v>10.18488897723558</v>
+        <v>11.26846482506139</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.46765327179158</v>
+        <v>31.46493355048414</v>
       </c>
       <c r="G13">
-        <v>22.69493806407251</v>
+        <v>30.64785751409067</v>
       </c>
       <c r="H13">
-        <v>8.701709736326377</v>
+        <v>14.78315883397907</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.364800351913549</v>
+        <v>11.4419899479043</v>
       </c>
       <c r="K13">
-        <v>13.8689197120806</v>
+        <v>9.085064301023104</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.95567488400816</v>
+        <v>15.9633992790736</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.35112782353693</v>
+        <v>22.75241353592033</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.92124662044032</v>
+        <v>10.20092615822208</v>
       </c>
       <c r="C14">
-        <v>8.047090752317409</v>
+        <v>6.151342427402959</v>
       </c>
       <c r="D14">
-        <v>10.11503861913805</v>
+        <v>11.25546184970119</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.40862285833262</v>
+        <v>31.47278748578463</v>
       </c>
       <c r="G14">
-        <v>22.64357537421849</v>
+        <v>30.66168703613183</v>
       </c>
       <c r="H14">
-        <v>8.714361726486715</v>
+        <v>14.79140007818138</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.350002932432076</v>
+        <v>11.44414539150614</v>
       </c>
       <c r="K14">
-        <v>13.76777149238168</v>
+        <v>9.043226321248302</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.82780058783703</v>
+        <v>15.94060442056515</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.35569724312208</v>
+        <v>22.76579286226647</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.83873979378804</v>
+        <v>10.16542476468596</v>
       </c>
       <c r="C15">
-        <v>8.021365854377175</v>
+        <v>6.139882304821798</v>
       </c>
       <c r="D15">
-        <v>10.07210447441591</v>
+        <v>11.247525327825</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.37287920416786</v>
+        <v>31.47774115837155</v>
       </c>
       <c r="G15">
-        <v>22.61278920238869</v>
+        <v>30.67034015842573</v>
       </c>
       <c r="H15">
-        <v>8.72224541388745</v>
+        <v>14.79649097507047</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.34102101939567</v>
+        <v>11.44549875536979</v>
       </c>
       <c r="K15">
-        <v>13.70546346945849</v>
+        <v>9.017511122555213</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.74898407794795</v>
+        <v>15.92666696428878</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.35882851668635</v>
+        <v>22.7740775466636</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.35787429140978</v>
+        <v>9.9597054624327</v>
       </c>
       <c r="C16">
-        <v>7.872537786891015</v>
+        <v>6.073726037897311</v>
       </c>
       <c r="D16">
-        <v>9.823826522761332</v>
+        <v>11.20248521826545</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.17435317907413</v>
+        <v>31.50831781677347</v>
       </c>
       <c r="G16">
-        <v>22.44657791214419</v>
+        <v>30.72271415789151</v>
       </c>
       <c r="H16">
-        <v>8.769432661183503</v>
+        <v>14.82632244975566</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.290797854252222</v>
+        <v>11.45376174954146</v>
       </c>
       <c r="K16">
-        <v>13.34302045973153</v>
+        <v>8.868832239542305</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.28978497959944</v>
+        <v>15.84719724137438</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.38175290524578</v>
+        <v>22.82292384899131</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.05567474979243</v>
+        <v>9.831526992175336</v>
       </c>
       <c r="C17">
-        <v>7.780004786570107</v>
+        <v>6.032724539652541</v>
       </c>
       <c r="D17">
-        <v>9.669565096873248</v>
+        <v>11.17525770122211</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.05814325430224</v>
+        <v>31.52902753840489</v>
       </c>
       <c r="G17">
-        <v>22.35357370062846</v>
+        <v>30.75732444160974</v>
       </c>
       <c r="H17">
-        <v>8.800126034384203</v>
+        <v>14.84521000792367</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.261093575398554</v>
+        <v>11.4592838001826</v>
       </c>
       <c r="K17">
-        <v>13.11588685522034</v>
+        <v>8.776490122943079</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.00133151525735</v>
+        <v>15.79881980675446</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.40013725907555</v>
+        <v>22.85411090118335</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.879203101296</v>
+        <v>9.757098173841641</v>
       </c>
       <c r="C18">
-        <v>7.726340263883069</v>
+        <v>6.008994127468509</v>
       </c>
       <c r="D18">
-        <v>9.580141341791517</v>
+        <v>11.15974911300741</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.9933326754053</v>
+        <v>31.54165590593676</v>
       </c>
       <c r="G18">
-        <v>22.30331085645548</v>
+        <v>30.77814056100594</v>
       </c>
       <c r="H18">
-        <v>8.818403323276785</v>
+        <v>14.8562893714333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.244411616585654</v>
+        <v>11.4626264748038</v>
       </c>
       <c r="K18">
-        <v>12.98349355763237</v>
+        <v>8.722978190811064</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.83292978805567</v>
+        <v>15.77113900065102</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.4122510291261</v>
+        <v>22.87249727796039</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.8189963193873</v>
+        <v>9.731779166256064</v>
       </c>
       <c r="C19">
-        <v>7.708095534952797</v>
+        <v>6.000934649186027</v>
       </c>
       <c r="D19">
-        <v>9.549746405410341</v>
+        <v>11.15452462784379</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.97173562027715</v>
+        <v>31.54605467939785</v>
       </c>
       <c r="G19">
-        <v>22.28684144683723</v>
+        <v>30.78534446546076</v>
       </c>
       <c r="H19">
-        <v>8.824697065739517</v>
+        <v>14.86007771196379</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.238832312881859</v>
+        <v>11.46378685610284</v>
       </c>
       <c r="K19">
-        <v>12.93836731185116</v>
+        <v>8.704793073226504</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.77548308880629</v>
+        <v>15.76179224637685</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.41661242015748</v>
+        <v>22.8787995600718</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.08811898602517</v>
+        <v>9.845245186133884</v>
       </c>
       <c r="C20">
-        <v>7.789901077040273</v>
+        <v>6.037104609040786</v>
       </c>
       <c r="D20">
-        <v>9.686059072576565</v>
+        <v>11.17814047484395</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.07030339978487</v>
+        <v>31.52674876376533</v>
       </c>
       <c r="G20">
-        <v>22.36313834241632</v>
+        <v>30.75354596428521</v>
       </c>
       <c r="H20">
-        <v>8.79679376362393</v>
+        <v>14.8431770680286</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.264213845542722</v>
+        <v>11.45867873400601</v>
       </c>
       <c r="K20">
-        <v>13.14024712182196</v>
+        <v>8.786361805646051</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.03229545173876</v>
+        <v>15.80395485572888</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.39801978937222</v>
+        <v>22.85074456713152</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.9606687310282</v>
+        <v>10.21790906773492</v>
       </c>
       <c r="C21">
-        <v>8.059401272141208</v>
+        <v>6.156829129025819</v>
       </c>
       <c r="D21">
-        <v>10.13558646203511</v>
+        <v>11.25927528864508</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.42587511030516</v>
+        <v>31.47045080933111</v>
       </c>
       <c r="G21">
-        <v>22.65852086899813</v>
+        <v>30.65758699989044</v>
       </c>
       <c r="H21">
-        <v>8.710617501222581</v>
+        <v>14.78897048558188</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.354332201143809</v>
+        <v>11.44350538953138</v>
       </c>
       <c r="K21">
-        <v>13.79755451925141</v>
+        <v>9.05553362309707</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.86546238084851</v>
+        <v>15.94729464099369</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.35428555364013</v>
+        <v>22.76184438372778</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.50745148954487</v>
+        <v>10.45474272855607</v>
       </c>
       <c r="C22">
-        <v>8.231383328268805</v>
+        <v>6.233643702890868</v>
       </c>
       <c r="D22">
-        <v>10.42277150017354</v>
+        <v>11.31357300078674</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.67674734612125</v>
+        <v>31.44005152037668</v>
       </c>
       <c r="G22">
-        <v>22.88161611655743</v>
+        <v>30.60301812638855</v>
       </c>
       <c r="H22">
-        <v>8.660243127757916</v>
+        <v>14.7554634451844</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.416888223873758</v>
+        <v>11.43507007355382</v>
       </c>
       <c r="K22">
-        <v>14.21141323531808</v>
+        <v>9.227548793614766</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.38803355147737</v>
+        <v>16.04211548634934</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.34044795511424</v>
+        <v>22.70774578368814</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.21776302909564</v>
+        <v>10.32897581887849</v>
       </c>
       <c r="C23">
-        <v>8.139982720277212</v>
+        <v>6.192782972980172</v>
       </c>
       <c r="D23">
-        <v>10.27011727025118</v>
+        <v>11.28448097702421</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.54114269589387</v>
+        <v>31.45569054812262</v>
       </c>
       <c r="G23">
-        <v>22.7597391074932</v>
+        <v>30.63139491454322</v>
       </c>
       <c r="H23">
-        <v>8.686564719251365</v>
+        <v>14.77317114235634</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.383162960002898</v>
+        <v>11.43943670817084</v>
       </c>
       <c r="K23">
-        <v>13.99197285797405</v>
+        <v>9.136114291898281</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.11112427426625</v>
+        <v>15.99141070530119</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.3464334067209</v>
+        <v>22.73625249623642</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.0734594614873</v>
+        <v>9.839045481932503</v>
       </c>
       <c r="C24">
-        <v>7.785428413297009</v>
+        <v>6.035124870790234</v>
       </c>
       <c r="D24">
-        <v>9.67860443636852</v>
+        <v>11.17683672072853</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.06479957301734</v>
+        <v>31.52777674872744</v>
       </c>
       <c r="G24">
-        <v>22.35880419499727</v>
+        <v>30.75525135429415</v>
       </c>
       <c r="H24">
-        <v>8.798298321292073</v>
+        <v>14.84409547281242</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.26280194051987</v>
+        <v>11.45895176118463</v>
       </c>
       <c r="K24">
-        <v>13.12923948501826</v>
+        <v>8.781900132126372</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.01830465099684</v>
+        <v>15.80163288720486</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.39897229849437</v>
+        <v>22.8522650648121</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.73760776746367</v>
+        <v>9.284015195879794</v>
       </c>
       <c r="C25">
-        <v>7.38625981821302</v>
+        <v>5.85950760583436</v>
       </c>
       <c r="D25">
-        <v>9.014284314660227</v>
+        <v>11.06657898181914</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.62827270610337</v>
+        <v>31.63292185868129</v>
       </c>
       <c r="G25">
-        <v>22.04888906313266</v>
+        <v>30.92357693930083</v>
       </c>
       <c r="H25">
-        <v>8.942453047693883</v>
+        <v>14.92884787347459</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.148337304045167</v>
+        <v>11.48636937475245</v>
       </c>
       <c r="K25">
-        <v>12.13182247475644</v>
+        <v>8.384813784377558</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.93767665381854</v>
+        <v>15.60253933081584</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.5139251008653</v>
+        <v>22.99454123569955</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.855412382637946</v>
+        <v>12.66598208603138</v>
       </c>
       <c r="C2">
-        <v>5.72609263032619</v>
+        <v>7.079368457109103</v>
       </c>
       <c r="D2">
-        <v>10.99082523556015</v>
+        <v>8.505386478144651</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.73380328294286</v>
+        <v>21.37042652898779</v>
       </c>
       <c r="G2">
-        <v>31.07709316244517</v>
+        <v>21.91789042897313</v>
       </c>
       <c r="H2">
-        <v>14.9983615352189</v>
+        <v>9.067018535382458</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.51203972391945</v>
+        <v>7.07681900144101</v>
       </c>
       <c r="K2">
-        <v>8.081647105149639</v>
+        <v>11.34111506369477</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.46151087255969</v>
+        <v>12.1333336188361</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.11399910700465</v>
+        <v>14.64331125580102</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.554288718961949</v>
+        <v>11.88465704177233</v>
       </c>
       <c r="C3">
-        <v>5.633480733610848</v>
+        <v>6.864157315634241</v>
       </c>
       <c r="D3">
-        <v>10.94305937733673</v>
+        <v>8.150057927572767</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.81675099005536</v>
+        <v>21.23354997083545</v>
       </c>
       <c r="G3">
-        <v>31.19942635312756</v>
+        <v>21.88504653146265</v>
       </c>
       <c r="H3">
-        <v>15.04991577096695</v>
+        <v>9.162076012465338</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.53285902276234</v>
+        <v>7.03605090753269</v>
       </c>
       <c r="K3">
-        <v>7.870683070697826</v>
+        <v>10.7710898090841</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.36976518107338</v>
+        <v>11.56458213908251</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.20410715127628</v>
+        <v>14.75632581246149</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.364838524017589</v>
+        <v>11.37778854292854</v>
       </c>
       <c r="C4">
-        <v>5.575664925535744</v>
+        <v>6.728795597476143</v>
       </c>
       <c r="D4">
-        <v>10.9155521400319</v>
+        <v>7.927511997943683</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.87485089427859</v>
+        <v>21.16749616768354</v>
       </c>
       <c r="G4">
-        <v>31.28350742403019</v>
+        <v>21.89077521814488</v>
       </c>
       <c r="H4">
-        <v>15.08376519329008</v>
+        <v>9.225431055465872</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.54733060962598</v>
+        <v>7.014720608286325</v>
       </c>
       <c r="K4">
-        <v>7.738893443013051</v>
+        <v>10.40471643915463</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.31543884710581</v>
+        <v>11.20476911960012</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.26394056452186</v>
+        <v>14.83739128607</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.286606199505792</v>
+        <v>11.16443089014329</v>
       </c>
       <c r="C5">
-        <v>5.551885881662214</v>
+        <v>6.67288245125071</v>
       </c>
       <c r="D5">
-        <v>10.90480926134118</v>
+        <v>7.835857808766239</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.90032655612521</v>
+        <v>21.14499045832146</v>
       </c>
       <c r="G5">
-        <v>31.32001771082777</v>
+        <v>21.89935817470677</v>
       </c>
       <c r="H5">
-        <v>15.09811140334428</v>
+        <v>9.252467402088016</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.55365253005139</v>
+        <v>7.006943790873358</v>
       </c>
       <c r="K5">
-        <v>7.68469487047622</v>
+        <v>10.25138922858884</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.29382212195273</v>
+        <v>11.05566806744799</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.28945534708104</v>
+        <v>14.87324425401384</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.273557194700015</v>
+        <v>11.12859279677058</v>
       </c>
       <c r="C6">
-        <v>5.547924800555048</v>
+        <v>6.663554479856036</v>
       </c>
       <c r="D6">
-        <v>10.90305383265924</v>
+        <v>7.820584667234129</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.90466534921616</v>
+        <v>21.14151640984401</v>
       </c>
       <c r="G6">
-        <v>31.32621564846514</v>
+        <v>21.90115289974932</v>
       </c>
       <c r="H6">
-        <v>15.10052694887663</v>
+        <v>9.257029363871284</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.55472792765199</v>
+        <v>7.00570727529986</v>
       </c>
       <c r="K6">
-        <v>7.675667702777876</v>
+        <v>10.22568916747184</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.2902646814999</v>
+        <v>11.03076664617762</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.29376040702282</v>
+        <v>14.87936447349865</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.363787463535518</v>
+        <v>11.37493864630271</v>
       </c>
       <c r="C7">
-        <v>5.575345090511504</v>
+        <v>6.728044498420478</v>
       </c>
       <c r="D7">
-        <v>10.91540535785786</v>
+        <v>7.926279634826754</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.87518718666181</v>
+        <v>21.16717493937755</v>
       </c>
       <c r="G7">
-        <v>31.28399072974638</v>
+        <v>21.89086602512882</v>
       </c>
       <c r="H7">
-        <v>15.08395643458099</v>
+        <v>9.22579078859253</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.54741414989458</v>
+        <v>7.014612041909153</v>
       </c>
       <c r="K7">
-        <v>7.738164397908238</v>
+        <v>10.40266478638691</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.31514518175161</v>
+        <v>11.20276803609033</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.26428008306238</v>
+        <v>14.83786355306102</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.752597874119605</v>
+        <v>12.40221946268972</v>
       </c>
       <c r="C8">
-        <v>5.694369802169692</v>
+        <v>7.005865307766277</v>
       </c>
       <c r="D8">
-        <v>10.9739828976016</v>
+        <v>8.383852639220489</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.76091363540717</v>
+        <v>21.31943369312553</v>
       </c>
       <c r="G8">
-        <v>31.11740731895641</v>
+        <v>21.90103620764399</v>
       </c>
       <c r="H8">
-        <v>15.01568210189969</v>
+        <v>9.098736434322614</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.51886782444856</v>
+        <v>7.061985082957298</v>
       </c>
       <c r="K8">
-        <v>8.009418338245844</v>
+        <v>11.14801770825917</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.42947122870657</v>
+        <v>11.93953299865027</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.14413235501863</v>
+        <v>14.67978371439216</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.474288189260786</v>
+        <v>14.20123150460301</v>
       </c>
       <c r="C9">
-        <v>5.919349680474982</v>
+        <v>7.522841219732309</v>
       </c>
       <c r="D9">
-        <v>11.10290201355982</v>
+        <v>9.241347814361433</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.59385192834093</v>
+        <v>21.76522992851098</v>
       </c>
       <c r="G9">
-        <v>30.86226137770822</v>
+        <v>22.13760091907267</v>
       </c>
       <c r="H9">
-        <v>14.89919538640014</v>
+        <v>8.890911424402811</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.47628236258265</v>
+        <v>7.184880520531581</v>
       </c>
       <c r="K9">
-        <v>8.520401232973231</v>
+        <v>12.47665053583675</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.6687890157839</v>
+        <v>13.29329368905165</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.94432906163782</v>
+        <v>14.46789897557547</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.974234479495033</v>
+        <v>15.39199816094904</v>
       </c>
       <c r="C10">
-        <v>6.078384197881974</v>
+        <v>7.883035762731897</v>
       </c>
       <c r="D10">
-        <v>11.20561238376841</v>
+        <v>9.841332908924031</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.50605185463576</v>
+        <v>22.1878901423167</v>
       </c>
       <c r="G10">
-        <v>30.71888825792101</v>
+        <v>22.45763271275339</v>
       </c>
       <c r="H10">
-        <v>14.82419647765323</v>
+        <v>8.766016092468961</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.45315420646487</v>
+        <v>7.294242189859117</v>
       </c>
       <c r="K10">
-        <v>8.879313778416662</v>
+        <v>13.36870003521148</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.85273653843988</v>
+        <v>14.32236274176165</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.8194259836811</v>
+        <v>14.37986723086634</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.19414615454704</v>
+        <v>15.90549989437734</v>
       </c>
       <c r="C11">
-        <v>6.149152809022108</v>
+        <v>8.042176885537589</v>
       </c>
       <c r="D11">
-        <v>11.2539424650381</v>
+        <v>10.10683708899802</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.47372630404013</v>
+        <v>22.40176304478648</v>
       </c>
       <c r="G11">
-        <v>30.66333097881952</v>
+        <v>22.63764818968641</v>
       </c>
       <c r="H11">
-        <v>14.7923710690242</v>
+        <v>8.715861419506258</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.44440223309384</v>
+        <v>7.348280461901529</v>
       </c>
       <c r="K11">
-        <v>9.038313991296205</v>
+        <v>13.75587715034322</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.93793765286404</v>
+        <v>14.8127575332885</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.76737184212975</v>
+        <v>14.35627641919641</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.27627285035704</v>
+        <v>16.09592143328581</v>
       </c>
       <c r="C12">
-        <v>6.17570690584512</v>
+        <v>8.101729895237336</v>
       </c>
       <c r="D12">
-        <v>11.27246313456239</v>
+        <v>10.20624772552886</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.46258230636978</v>
+        <v>22.4859196662604</v>
       </c>
       <c r="G12">
-        <v>30.64368964535692</v>
+        <v>22.71095819912784</v>
       </c>
       <c r="H12">
-        <v>14.78064890535934</v>
+        <v>8.6978841080298</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.44134221907172</v>
+        <v>7.369370507761945</v>
       </c>
       <c r="K12">
-        <v>9.097857692351647</v>
+        <v>13.89979470461563</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.97039879691992</v>
+        <v>14.99469028769828</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.74834668920817</v>
+        <v>14.34986042392321</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.25863750214436</v>
+        <v>16.05508959770441</v>
       </c>
       <c r="C13">
-        <v>6.169999148981372</v>
+        <v>8.088936147422757</v>
       </c>
       <c r="D13">
-        <v>11.26846482506139</v>
+        <v>10.18488897723563</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.46493355048414</v>
+        <v>22.46765327179156</v>
       </c>
       <c r="G13">
-        <v>30.64785751409067</v>
+        <v>22.69493806407251</v>
       </c>
       <c r="H13">
-        <v>14.78315883397907</v>
+        <v>8.70170973632627</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.4419899479043</v>
+        <v>7.364800351913564</v>
       </c>
       <c r="K13">
-        <v>9.085064301023104</v>
+        <v>13.86891971208057</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.9633992790736</v>
+        <v>14.95567488400817</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.75241353592033</v>
+        <v>14.3511278235369</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.20092615822208</v>
+        <v>15.92124662044032</v>
       </c>
       <c r="C14">
-        <v>6.151342427402959</v>
+        <v>8.047090752317423</v>
       </c>
       <c r="D14">
-        <v>11.25546184970119</v>
+        <v>10.11503861913807</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.47278748578463</v>
+        <v>22.40862285833252</v>
       </c>
       <c r="G14">
-        <v>30.66168703613183</v>
+        <v>22.64357537421835</v>
       </c>
       <c r="H14">
-        <v>14.79140007818138</v>
+        <v>8.714361726486668</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.44414539150614</v>
+        <v>7.350002932432005</v>
       </c>
       <c r="K14">
-        <v>9.043226321248302</v>
+        <v>13.76777149238171</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.94060442056515</v>
+        <v>14.82780058783709</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.76579286226647</v>
+        <v>14.35569724312201</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.16542476468596</v>
+        <v>15.83873979378812</v>
       </c>
       <c r="C15">
-        <v>6.139882304821798</v>
+        <v>8.021365854376992</v>
       </c>
       <c r="D15">
-        <v>11.247525327825</v>
+        <v>10.07210447441593</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.47774115837155</v>
+        <v>22.37287920416765</v>
       </c>
       <c r="G15">
-        <v>30.67034015842573</v>
+        <v>22.6127892023884</v>
       </c>
       <c r="H15">
-        <v>14.79649097507047</v>
+        <v>8.72224541388732</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.44549875536979</v>
+        <v>7.341021019395658</v>
       </c>
       <c r="K15">
-        <v>9.017511122555213</v>
+        <v>13.70546346945851</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.92666696428878</v>
+        <v>14.74898407794799</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.7740775466636</v>
+        <v>14.35882851668616</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.9597054624327</v>
+        <v>15.35787429140983</v>
       </c>
       <c r="C16">
-        <v>6.073726037897311</v>
+        <v>7.87253778689084</v>
       </c>
       <c r="D16">
-        <v>11.20248521826545</v>
+        <v>9.823826522761332</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.50831781677347</v>
+        <v>22.17435317907407</v>
       </c>
       <c r="G16">
-        <v>30.72271415789151</v>
+        <v>22.44657791214413</v>
       </c>
       <c r="H16">
-        <v>14.82632244975566</v>
+        <v>8.769432661183449</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.45376174954146</v>
+        <v>7.290797854252243</v>
       </c>
       <c r="K16">
-        <v>8.868832239542305</v>
+        <v>13.34302045973153</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.84719724137438</v>
+        <v>14.28978497959944</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.82292384899131</v>
+        <v>14.3817529052457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.831526992175336</v>
+        <v>15.05567474979244</v>
       </c>
       <c r="C17">
-        <v>6.032724539652541</v>
+        <v>7.780004786569992</v>
       </c>
       <c r="D17">
-        <v>11.17525770122211</v>
+        <v>9.669565096873377</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.52902753840489</v>
+        <v>22.05814325430232</v>
       </c>
       <c r="G17">
-        <v>30.75732444160974</v>
+        <v>22.35357370062845</v>
       </c>
       <c r="H17">
-        <v>14.84521000792367</v>
+        <v>8.800126034384096</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.4592838001826</v>
+        <v>7.261093575398535</v>
       </c>
       <c r="K17">
-        <v>8.776490122943079</v>
+        <v>13.11588685522035</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.79881980675446</v>
+        <v>14.00133151525731</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.85411090118335</v>
+        <v>14.40013725907553</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.757098173841641</v>
+        <v>14.87920310129592</v>
       </c>
       <c r="C18">
-        <v>6.008994127468509</v>
+        <v>7.726340263883349</v>
       </c>
       <c r="D18">
-        <v>11.15974911300741</v>
+        <v>9.580141341791503</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.54165590593676</v>
+        <v>21.99333267540536</v>
       </c>
       <c r="G18">
-        <v>30.77814056100594</v>
+        <v>22.30331085645559</v>
       </c>
       <c r="H18">
-        <v>14.8562893714333</v>
+        <v>8.818403323276792</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.4626264748038</v>
+        <v>7.244411616585761</v>
       </c>
       <c r="K18">
-        <v>8.722978190811064</v>
+        <v>12.98349355763238</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.77113900065102</v>
+        <v>13.83292978805562</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.87249727796039</v>
+        <v>14.41225102912617</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.731779166256064</v>
+        <v>14.8189963193873</v>
       </c>
       <c r="C19">
-        <v>6.000934649186027</v>
+        <v>7.708095534952705</v>
       </c>
       <c r="D19">
-        <v>11.15452462784379</v>
+        <v>9.549746405410236</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.54605467939785</v>
+        <v>21.97173562027692</v>
       </c>
       <c r="G19">
-        <v>30.78534446546076</v>
+        <v>22.28684144683707</v>
       </c>
       <c r="H19">
-        <v>14.86007771196379</v>
+        <v>8.824697065739459</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.46378685610284</v>
+        <v>7.238832312881841</v>
       </c>
       <c r="K19">
-        <v>8.704793073226504</v>
+        <v>12.93836731185118</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.76179224637685</v>
+        <v>13.77548308880636</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.8787995600718</v>
+        <v>14.41661242015738</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.845245186133884</v>
+        <v>15.08811898602518</v>
       </c>
       <c r="C20">
-        <v>6.037104609040786</v>
+        <v>7.789901077040247</v>
       </c>
       <c r="D20">
-        <v>11.17814047484395</v>
+        <v>9.686059072576567</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.52674876376533</v>
+        <v>22.07030339978491</v>
       </c>
       <c r="G20">
-        <v>30.75354596428521</v>
+        <v>22.36313834241629</v>
       </c>
       <c r="H20">
-        <v>14.8431770680286</v>
+        <v>8.79679376362404</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.45867873400601</v>
+        <v>7.264213845542722</v>
       </c>
       <c r="K20">
-        <v>8.786361805646051</v>
+        <v>13.14024712182198</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.80395485572888</v>
+        <v>14.03229545173877</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.85074456713152</v>
+        <v>14.39801978937224</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.21790906773492</v>
+        <v>15.9606687310283</v>
       </c>
       <c r="C21">
-        <v>6.156829129025819</v>
+        <v>8.05940127214094</v>
       </c>
       <c r="D21">
-        <v>11.25927528864508</v>
+        <v>10.13558646203512</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.47045080933111</v>
+        <v>22.425875110305</v>
       </c>
       <c r="G21">
-        <v>30.65758699989044</v>
+        <v>22.65852086899791</v>
       </c>
       <c r="H21">
-        <v>14.78897048558188</v>
+        <v>8.71061750122251</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.44350538953138</v>
+        <v>7.354332201143794</v>
       </c>
       <c r="K21">
-        <v>9.05553362309707</v>
+        <v>13.79755451925145</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.94729464099369</v>
+        <v>14.86546238084856</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.76184438372778</v>
+        <v>14.35428555363998</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.45474272855607</v>
+        <v>16.5074514895449</v>
       </c>
       <c r="C22">
-        <v>6.233643702890868</v>
+        <v>8.231383328268766</v>
       </c>
       <c r="D22">
-        <v>11.31357300078674</v>
+        <v>10.42277150017348</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.44005152037668</v>
+        <v>22.67674734612129</v>
       </c>
       <c r="G22">
-        <v>30.60301812638855</v>
+        <v>22.88161611655762</v>
       </c>
       <c r="H22">
-        <v>14.7554634451844</v>
+        <v>8.660243127757926</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.43507007355382</v>
+        <v>7.416888223873823</v>
       </c>
       <c r="K22">
-        <v>9.227548793614766</v>
+        <v>14.21141323531806</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.04211548634934</v>
+        <v>15.38803355147736</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.70774578368814</v>
+        <v>14.34044795511431</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.32897581887849</v>
+        <v>16.21776302909567</v>
       </c>
       <c r="C23">
-        <v>6.192782972980172</v>
+        <v>8.139982720277104</v>
       </c>
       <c r="D23">
-        <v>11.28448097702421</v>
+        <v>10.27011727025114</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.45569054812262</v>
+        <v>22.5411426958938</v>
       </c>
       <c r="G23">
-        <v>30.63139491454322</v>
+        <v>22.7597391074932</v>
       </c>
       <c r="H23">
-        <v>14.77317114235634</v>
+        <v>8.686564719251324</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.43943670817084</v>
+        <v>7.383162960002942</v>
       </c>
       <c r="K23">
-        <v>9.136114291898281</v>
+        <v>13.99197285797409</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.99141070530119</v>
+        <v>15.11112427426626</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.73625249623642</v>
+        <v>14.34643340672085</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.839045481932503</v>
+        <v>15.07345946148725</v>
       </c>
       <c r="C24">
-        <v>6.035124870790234</v>
+        <v>7.785428413297184</v>
       </c>
       <c r="D24">
-        <v>11.17683672072853</v>
+        <v>9.678604436368474</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.52777674872744</v>
+        <v>22.06479957301734</v>
       </c>
       <c r="G24">
-        <v>30.75525135429415</v>
+        <v>22.35880419499737</v>
       </c>
       <c r="H24">
-        <v>14.84409547281242</v>
+        <v>8.798298321292071</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.45895176118463</v>
+        <v>7.262801940519855</v>
       </c>
       <c r="K24">
-        <v>8.781900132126372</v>
+        <v>13.12923948501824</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.80163288720486</v>
+        <v>14.01830465099687</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.8522650648121</v>
+        <v>14.39897229849442</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.284015195879794</v>
+        <v>13.73760776746367</v>
       </c>
       <c r="C25">
-        <v>5.85950760583436</v>
+        <v>7.386259818213111</v>
       </c>
       <c r="D25">
-        <v>11.06657898181914</v>
+        <v>9.0142843146602</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.63292185868129</v>
+        <v>21.62827270610334</v>
       </c>
       <c r="G25">
-        <v>30.92357693930083</v>
+        <v>22.04888906313264</v>
       </c>
       <c r="H25">
-        <v>14.92884787347459</v>
+        <v>8.942453047693835</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.48636937475245</v>
+        <v>7.148337304045184</v>
       </c>
       <c r="K25">
-        <v>8.384813784377558</v>
+        <v>12.13182247475646</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.60253933081584</v>
+        <v>12.93767665381855</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.99454123569955</v>
+        <v>14.51392510086525</v>
       </c>
     </row>
   </sheetData>
